--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value436.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value436.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.497907750638229</v>
+        <v>1.439938902854919</v>
       </c>
       <c r="B1">
-        <v>2.060443766521836</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.96034019466903</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.320353102738044</v>
+        <v>1.515881299972534</v>
       </c>
       <c r="E1">
-        <v>1.248847030747619</v>
+        <v>1.044800043106079</v>
       </c>
     </row>
   </sheetData>
